--- a/Data/PageObjectsData_h5.xlsx
+++ b/Data/PageObjectsData_h5.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Page_HomeGuide" sheetId="14" r:id="rId1"/>
     <sheet name="Page_Home" sheetId="17" r:id="rId2"/>
     <sheet name="Page_Login" sheetId="15" r:id="rId3"/>
-    <sheet name="Page_GoodsDetails" sheetId="21" r:id="rId4"/>
-    <sheet name="Page_ShopCart" sheetId="18" r:id="rId5"/>
-    <sheet name="Page_OrderDetails" sheetId="22" r:id="rId6"/>
-    <sheet name="Page_OnlinePay" sheetId="23" r:id="rId7"/>
+    <sheet name="Page_GoodsList" sheetId="25" r:id="rId4"/>
+    <sheet name="Page_GoodsDetails" sheetId="21" r:id="rId5"/>
+    <sheet name="Page_ShopCart" sheetId="18" r:id="rId6"/>
+    <sheet name="Page_ConfirmOrder" sheetId="23" r:id="rId7"/>
     <sheet name="Page_PersonalCenter" sheetId="24" r:id="rId8"/>
+    <sheet name="Page_OrderDetails" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,78 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ToPay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btnSubmitOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算页面--去付款按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectShippingAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="addressBox"]//dl[1]//input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算页面--收货地址--选择第1个地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaveShippingAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="address_but"]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算页面--收货地址--保存并送到这个地址 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PayMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spanPayment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算页面--支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetOrderNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="cartnew-pay"]/h3/strong[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线支付页面--订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoToOrderCenter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[contains(@class,"simple-items")]/li[3]//a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线支付页面--导航栏中的 订单中心 链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[contains(@class,"middle-pan")]/a[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class="addCartChooseColor"]/li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class="addCartSizeList"]/li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买商品--选择颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class="headerYOHO"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人中心--顶部导航栏--YOHO图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +230,234 @@
   </si>
   <si>
     <t>btn-login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品到着--列表--商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToSelectOne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="good-detail-img"]/a/img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float_Layer_Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页--底部--提示下载--X图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float_layer_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="addCartSizeList"]/li[@class=""]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="giveawayImg"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiveawayImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--列表--商品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="addCartChooseColor"]/li[@class="" or @class="active"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="orderList"]/li/em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderListEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--列表--X图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteFromOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="deleteFromOrder"]/a[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--列表--删除按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[contains(@class,"headerCart")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeaderCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页--顶部--购物车图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[contains(@class,"listBack")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--列表--返回图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="yohoLogo"]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单页面--选择送货时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="pay-style pay-zfb"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单页面--选择支付宝支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayByZhifubao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="shippingChange"]/p/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="deliveryChange"]/p/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单页面--选择配送方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="orderHeadList"]/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心--菜单--我的订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="newloginType"]/a[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderListToSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心--订单列表--选择订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="order-pan"]/div[2]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gray-but</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心--订单详情--取消订单按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="newloginType"]/a[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心--底部--退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单页面--订单成功页面--返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="fn-left"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心--底部--用户昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToPersonCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="c"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心--底部--版权所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +494,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -392,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -412,6 +563,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -719,7 +871,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -752,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -766,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,44 +963,72 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -862,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,13 +1098,13 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -938,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -946,16 +1126,16 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -973,14 +1153,83 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="4" max="4" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.625" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
     <col min="4" max="5" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1000,58 +1249,58 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1061,12 +1310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,16 +1342,72 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1112,12 +1417,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1144,173 +1638,48 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/PageObjectsData_h5.xlsx
+++ b/Data/PageObjectsData_h5.xlsx
@@ -405,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gray-but</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人中心--订单详情--取消订单按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,6 +454,10 @@
   </si>
   <si>
     <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="noborder"]/a[2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1491,16 +1491,16 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1584,16 +1584,16 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1638,21 +1638,21 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -1661,21 +1661,21 @@
         <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">

--- a/Data/PageObjectsData_h5.xlsx
+++ b/Data/PageObjectsData_h5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Page_HomeGuide" sheetId="14" r:id="rId1"/>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>btn-login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新品到着--列表--商品图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,6 +454,10 @@
   </si>
   <si>
     <t>//*[@class="noborder"]/a[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="content"]/span</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,30 +1005,30 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1115,10 +1115,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1180,16 +1180,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -1269,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>36</v>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>37</v>
@@ -1356,58 +1356,58 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1449,58 +1449,58 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>49</v>
@@ -1556,44 +1556,44 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -1610,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1638,44 +1638,44 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">

--- a/Data/PageObjectsData_h5.xlsx
+++ b/Data/PageObjectsData_h5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Page_HomeGuide" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
   <si>
     <t>VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class="toBuyNow"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ToBuyNow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,6 +454,22 @@
   </si>
   <si>
     <t>//*[@class="content"]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackToList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class="icon-uni3C listBack"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--左上角返回图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -539,11 +551,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -564,6 +587,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,30 +1031,30 @@
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1042,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1098,7 +1124,7 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1118,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1126,16 +1152,16 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1180,16 +1206,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -1219,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,61 +1273,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,72 +1385,72 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1449,58 +1492,58 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1542,58 +1585,58 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -1638,44 +1681,44 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">

--- a/Data/PageObjectsData_h5.xlsx
+++ b/Data/PageObjectsData_h5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Page_HomeGuide" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,14 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新品上架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页--新品上架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导航栏--用户图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,6 +462,22 @@
   </si>
   <si>
     <t>商品详情页--左上角返回图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backToTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品到着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页--新品到着</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -950,6 +958,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -961,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -998,63 +1020,63 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1146,7 @@
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1144,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1152,16 +1174,16 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -1206,16 +1228,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -1247,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1275,72 +1297,72 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -1385,72 +1407,72 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1492,58 +1514,58 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1585,58 +1607,58 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -1681,44 +1703,44 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
